--- a/SubTeamList.xlsx
+++ b/SubTeamList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hudson\Documents\programming 2020\preseason prep\challenge2\SubTeamCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66C7E100-CD0C-4ACF-BFAE-C1C9DB840013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43645B42-1945-4341-9E97-ADEA24B682AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{25C3216E-786D-40FF-B372-3EBD68178164}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Build</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Graphics</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -63,134 +60,17 @@
     <t>Initiatives</t>
   </si>
   <si>
-    <t>Hovey Ryan</t>
-  </si>
-  <si>
-    <t>Clark, Simon</t>
-  </si>
-  <si>
-    <t>Henry Waltson</t>
-  </si>
-  <si>
-    <t>Klein, Alex</t>
-  </si>
-  <si>
-    <t>Tierney Monroe</t>
-  </si>
-  <si>
-    <t>Wyeth Cooper</t>
-  </si>
-  <si>
-    <t>KyLee Davis</t>
-  </si>
-  <si>
-    <t>Charlie Bergdall</t>
-  </si>
-  <si>
-    <t>Noeth, Evan</t>
-  </si>
-  <si>
-    <t>Cecila, DV</t>
-  </si>
-  <si>
-    <t>Matchett, Drew</t>
-  </si>
-  <si>
-    <t>Brandon SIiffe</t>
-  </si>
-  <si>
-    <t>Wagner, Hope</t>
-  </si>
-  <si>
-    <t>Brooks Schaffer</t>
-  </si>
-  <si>
-    <t>Kiera Jones</t>
-  </si>
-  <si>
-    <t>Diehl, Andrea</t>
-  </si>
-  <si>
-    <t>Rahi Dasgupta</t>
-  </si>
-  <si>
-    <t>Alana Schmalzried-Lugo</t>
-  </si>
-  <si>
-    <t>Riekeman, Adam</t>
-  </si>
-  <si>
-    <t>Nolan Burris</t>
-  </si>
-  <si>
-    <t>Andrew wiemers</t>
-  </si>
-  <si>
-    <t>Haines, Brayden</t>
-  </si>
-  <si>
-    <t>Micah Lehman</t>
-  </si>
-  <si>
-    <t>TJ Morrison</t>
-  </si>
-  <si>
-    <t>Andrew Kepych</t>
-  </si>
-  <si>
-    <t>Raef Schaffer</t>
-  </si>
-  <si>
-    <t>Kadyn Coleman</t>
-  </si>
-  <si>
-    <t>Shane Macrorie</t>
-  </si>
-  <si>
-    <t>Zollers, Zane</t>
-  </si>
-  <si>
-    <t>Gaven Behrends</t>
-  </si>
-  <si>
-    <t>Prince, Jared</t>
-  </si>
-  <si>
-    <t>Jackson, Ben</t>
-  </si>
-  <si>
-    <t>Cooper Wright</t>
-  </si>
-  <si>
-    <t>Seher, Austin</t>
-  </si>
-  <si>
-    <t>Sam Swails</t>
-  </si>
-  <si>
-    <t>Daniel Mccubbins</t>
-  </si>
-  <si>
-    <t>Yadav, Sohum</t>
-  </si>
-  <si>
-    <t>Aleko Khundadze</t>
-  </si>
-  <si>
-    <t>Alexander Cha</t>
-  </si>
-  <si>
-    <t>Dax Hurst</t>
-  </si>
-  <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Marketig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,12 +91,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -232,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -300,41 +174,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -349,21 +193,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,13 +518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F205EE-6B0A-4D28-B65D-15D143B19E24}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -711,303 +544,199 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8">
         <v>40</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>12</v>
-      </c>
-      <c r="B16" s="13">
-        <v>5</v>
-      </c>
-      <c r="C16" s="13">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13">
-        <v>4</v>
-      </c>
-      <c r="E16" s="13">
-        <v>3</v>
-      </c>
-      <c r="F16" s="13">
-        <v>3</v>
-      </c>
-      <c r="G16" s="13">
-        <v>2</v>
-      </c>
-      <c r="H16" s="13">
-        <v>5</v>
-      </c>
-      <c r="I16" s="13">
-        <v>2</v>
-      </c>
-      <c r="J16" s="13">
-        <v>40</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
